--- a/server/data/resources/Referenzgroessen_input_updated_ERSETZT.xlsx
+++ b/server/data/resources/Referenzgroessen_input_updated_ERSETZT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501E29B-22C8-4A59-90B1-084B7E414AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8DE71-63FB-4A85-BA9A-BE83D8C879F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B728533D-2FCC-42F7-AAD0-D9C231CDF6B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="826">
   <si>
     <t>01001</t>
   </si>
@@ -2493,7 +2493,22 @@
     <t>SV-pflichtig Beschäftigte am Wohnort</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Zensus Fortschreibung</t>
+  </si>
+  <si>
+    <t>INKAR</t>
+  </si>
+  <si>
+    <t>Statistik der Bundesagentur für Arbeit, rückerrechnet aus Arbeitslosenzahlen und Arbeitslosenquoten</t>
+  </si>
+  <si>
+    <t>Statistik der Bundesagentur für Arbeit</t>
+  </si>
+  <si>
+    <t>Fortschreibung des Bevölkerungsstandes 2011</t>
+  </si>
+  <si>
+    <t>INKAR (2015)</t>
   </si>
 </sst>
 </file>
@@ -2503,7 +2518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2535,6 +2550,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2678,11 +2700,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2712,10 +2735,11 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{EB530446-9B93-4967-BE78-74375757D2F8}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{464BA193-0AA0-4124-B5C8-D941E6E37E32}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D3AB0775-E1ED-433D-939A-6ADEDD3336D3}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{ED0B50DD-3657-4708-9CD6-82DF9D4B07EA}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3030,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85ECE79-C53C-4EDF-9612-DD2A0AFA43B7}">
   <dimension ref="A1:AQ411"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,13 +3119,118 @@
         <v>818</v>
       </c>
       <c r="F6" t="s">
-        <v>818</v>
+        <v>821</v>
+      </c>
+      <c r="G6" t="s">
+        <v>820</v>
+      </c>
+      <c r="H6" t="s">
+        <v>820</v>
+      </c>
+      <c r="I6" t="s">
+        <v>820</v>
+      </c>
+      <c r="J6" t="s">
+        <v>820</v>
+      </c>
+      <c r="K6" t="s">
+        <v>820</v>
+      </c>
+      <c r="L6" t="s">
+        <v>822</v>
+      </c>
+      <c r="M6" t="s">
+        <v>822</v>
+      </c>
+      <c r="N6" t="s">
+        <v>822</v>
+      </c>
+      <c r="O6" t="s">
+        <v>822</v>
+      </c>
+      <c r="P6" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>822</v>
+      </c>
+      <c r="R6" t="s">
+        <v>822</v>
+      </c>
+      <c r="S6" t="s">
+        <v>822</v>
       </c>
       <c r="T6" t="s">
         <v>818</v>
       </c>
+      <c r="U6" t="s">
+        <v>823</v>
+      </c>
+      <c r="V6" t="s">
+        <v>823</v>
+      </c>
+      <c r="W6" t="s">
+        <v>823</v>
+      </c>
+      <c r="X6" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>823</v>
+      </c>
       <c r="AB6" t="s">
-        <v>818</v>
+        <v>821</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -3111,9 +3240,6 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="L7" t="s">
-        <v>820</v>
-      </c>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
